--- a/EAGLE files/CONN_J2.xlsx
+++ b/EAGLE files/CONN_J2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\EAGLE files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EE8CA-7CAD-4ED4-93E0-8A0D90B9FBD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBCC0FD-8DF2-4CEC-A6FD-CF76CE04A166}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9EF6BEFF-5A99-46E5-B96F-0984329D8ABF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>PIN</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>AUX POWER IN</t>
+  </si>
+  <si>
+    <t>TEST POINT</t>
+  </si>
+  <si>
+    <t>CAM PCLK</t>
+  </si>
+  <si>
+    <t>LINE VALID</t>
+  </si>
+  <si>
+    <t>FRAME VALID</t>
   </si>
 </sst>
 </file>
@@ -489,14 +501,16 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="8" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
@@ -736,8 +750,14 @@
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -747,8 +767,14 @@
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -758,8 +784,14 @@
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -767,8 +799,14 @@
         <v>9</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>4</v>
       </c>
